--- a/doc/notes/12-26-2020 Storyboard.xlsx
+++ b/doc/notes/12-26-2020 Storyboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Projects\bachelor-quality-testing-inloom\doc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275759D1-86E2-4744-A988-AB39177B0C4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D06D502-76F2-4E29-828A-F5DEEE5DD781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1830" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -135,12 +135,6 @@
     <t>What Requirements where found and how where they fulfilled?</t>
   </si>
   <si>
-    <t>Realisation</t>
-  </si>
-  <si>
-    <t>Realisation as a webapp</t>
-  </si>
-  <si>
     <t>Why is an Web App optimal and why you a server frontend patern?</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>Implementations of the described frontend</t>
+  </si>
+  <si>
+    <t>Realization as a webapp</t>
+  </si>
+  <si>
+    <t>Realization</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,31 +704,31 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
